--- a/RASP.xlsx
+++ b/RASP.xlsx
@@ -523,10 +523,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2.0" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B4" sqref="B4" pane="bottomLeft"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
@@ -1175,7 +1172,7 @@
       <c r="B12" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="12" t="s">
         <v>53</v>
       </c>
       <c r="D12" s="14" t="s">
